--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 10:28:20</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 11:41:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 11:41:26</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:08:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:08:16</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:32:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:32:03</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:44:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:44:59</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:53:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:53:54</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:02:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:02:31</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:28:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:28:58</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:43:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:43:39</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:51:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:51:51</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:01:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:01:07</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:19:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:19:42</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:30:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:30:50</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:40:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:40:33</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:49:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:49:09</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:58:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:58:08</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:17:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:17:58</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:37:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:37:55</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:50:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:50:17</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:58:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:58:49</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:14:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:14:04</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:27:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:27:19</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:36:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:36:45</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:45:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:45:46</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:54:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:54:52</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:09:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:09:56</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:32:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:32:50</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:46:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:46:14</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:54:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:54:37</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:04:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:04:04</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:24:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:24:08</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:33:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:33:23</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:42:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:42:23</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:51:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:51:32</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:00:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:00:01</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:20:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:20:18</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:35:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:35:50</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:45:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:45:51</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:54:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:54:38</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:03:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:03:41</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:20:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:20:26</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:29:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:29:36</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:39:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:39:28</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:47:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:47:48</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:57:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:57:13</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 09:20:00</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -22542,10 +22542,10 @@
         <v>107</v>
       </c>
       <c r="O160" s="0" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="P160" s="0" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="Q160" s="0" t="s">
         <v>48</v>
@@ -22557,7 +22557,7 @@
         <v>148</v>
       </c>
       <c r="T160" s="0" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161">
@@ -22666,10 +22666,10 @@
         <v>107</v>
       </c>
       <c r="O162" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P162" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q162" s="0" t="s">
         <v>48</v>
@@ -22681,7 +22681,7 @@
         <v>148</v>
       </c>
       <c r="T162" s="0" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163">
@@ -41424,7 +41424,7 @@
         <v>83</v>
       </c>
       <c r="K466" s="0">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L466" s="0" t="s">
         <v>203</v>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 09:20:00</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 09:53:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 09:53:25</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 10:16:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 10:16:22</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 10:35:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 10:35:59</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 10:45:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 10:45:04</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 10:53:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 10:53:42</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:03:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:03:00</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:22:06</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -56893,7 +56893,7 @@
         <v>33</v>
       </c>
       <c r="S717" s="0" t="s">
-        <v>148</v>
+        <v>621</v>
       </c>
       <c r="T717" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:22:06</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:32:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:32:30</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:41:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:41:52</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:50:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:50:56</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 11:59:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 11:59:42</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:18:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
-  <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:18:10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
+  <si>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:32:52</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12675,6 +12675,18 @@
   </si>
   <si>
     <t>8.500.000,00</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>VALDEMIR CARLOS DE SOUZA</t>
+  </si>
+  <si>
+    <t>-16°12'56.430"</t>
+  </si>
+  <si>
+    <t>-56°39'08.070"</t>
   </si>
   <si>
     <t>VI</t>
@@ -12852,8 +12864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:T930">
-  <autoFilter ref="A5:T930"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:T931">
+  <autoFilter ref="A5:T931"/>
   <tableColumns count="20">
     <tableColumn id="1" name="ID Barragem"/>
     <tableColumn id="2" name="Nome da Barragem"/>
@@ -12882,7 +12894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T930"/>
+  <dimension ref="A1:T931"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -69699,69 +69711,66 @@
     </row>
     <row r="925">
       <c r="A925" s="0">
-        <v>8456</v>
+        <v>10041</v>
       </c>
       <c r="B925" s="0" t="s">
         <v>4221</v>
       </c>
       <c r="C925" s="0" t="s">
-        <v>52</v>
+        <v>4222</v>
       </c>
       <c r="D925" s="0" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="E925" s="0" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="F925" s="0" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="G925" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H925" s="0" t="s">
-        <v>1047</v>
+        <v>202</v>
       </c>
       <c r="I925" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J925" s="0" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="K925" s="0">
-        <v>45.15</v>
+        <v>0</v>
       </c>
       <c r="L925" s="0" t="s">
-        <v>4224</v>
+        <v>29</v>
       </c>
       <c r="M925" s="0" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N925" s="0" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="O925" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P925" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q925" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="R925" s="0" t="s">
         <v>33</v>
       </c>
       <c r="S925" s="0" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="T925" s="0" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0">
-        <v>8457</v>
+        <v>8456</v>
       </c>
       <c r="B926" s="0" t="s">
         <v>4225</v>
@@ -69791,7 +69800,7 @@
         <v>58</v>
       </c>
       <c r="K926" s="0">
-        <v>22.5</v>
+        <v>45.15</v>
       </c>
       <c r="L926" s="0" t="s">
         <v>4228</v>
@@ -69803,10 +69812,10 @@
         <v>107</v>
       </c>
       <c r="O926" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P926" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q926" s="0" t="s">
         <v>48</v>
@@ -69818,45 +69827,45 @@
         <v>148</v>
       </c>
       <c r="T926" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0">
-        <v>8744</v>
+        <v>8457</v>
       </c>
       <c r="B927" s="0" t="s">
         <v>4229</v>
       </c>
       <c r="C927" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D927" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E927" s="0" t="s">
         <v>4230</v>
       </c>
-      <c r="D927" s="0" t="s">
+      <c r="F927" s="0" t="s">
         <v>4231</v>
       </c>
-      <c r="E927" s="0" t="s">
-        <v>4232</v>
-      </c>
-      <c r="F927" s="0" t="s">
-        <v>4233</v>
-      </c>
       <c r="G927" s="0" t="s">
-        <v>703</v>
+        <v>26</v>
       </c>
       <c r="H927" s="0" t="s">
-        <v>704</v>
+        <v>1047</v>
       </c>
       <c r="I927" s="0" t="s">
-        <v>705</v>
+        <v>120</v>
       </c>
       <c r="J927" s="0" t="s">
         <v>58</v>
       </c>
       <c r="K927" s="0">
-        <v>15.5</v>
+        <v>22.5</v>
       </c>
       <c r="L927" s="0" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="M927" s="0" t="s">
         <v>44</v>
@@ -69865,10 +69874,10 @@
         <v>107</v>
       </c>
       <c r="O927" s="0" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="P927" s="0" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="Q927" s="0" t="s">
         <v>48</v>
@@ -69885,43 +69894,43 @@
     </row>
     <row r="928">
       <c r="A928" s="0">
-        <v>8857</v>
+        <v>8744</v>
       </c>
       <c r="B928" s="0" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C928" s="0" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D928" s="0" t="s">
         <v>4235</v>
       </c>
-      <c r="C928" s="0" t="s">
+      <c r="E928" s="0" t="s">
         <v>4236</v>
       </c>
-      <c r="D928" s="0" t="s">
+      <c r="F928" s="0" t="s">
         <v>4237</v>
       </c>
-      <c r="E928" s="0" t="s">
+      <c r="G928" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="H928" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="I928" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="J928" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K928" s="0">
+        <v>15.5</v>
+      </c>
+      <c r="L928" s="0" t="s">
         <v>4238</v>
       </c>
-      <c r="F928" s="0" t="s">
-        <v>4239</v>
-      </c>
-      <c r="G928" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H928" s="0" t="s">
-        <v>4240</v>
-      </c>
-      <c r="I928" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J928" s="0" t="s">
-        <v>4241</v>
-      </c>
-      <c r="K928" s="0">
-        <v>25</v>
-      </c>
-      <c r="L928" s="0" t="s">
-        <v>4242</v>
-      </c>
       <c r="M928" s="0" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="N928" s="0" t="s">
         <v>107</v>
@@ -69942,57 +69951,57 @@
         <v>148</v>
       </c>
       <c r="T928" s="0" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0">
-        <v>9357</v>
+        <v>8857</v>
       </c>
       <c r="B929" s="0" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C929" s="0" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D929" s="0" t="s">
+        <v>4241</v>
+      </c>
+      <c r="E929" s="0" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F929" s="0" t="s">
         <v>4243</v>
       </c>
-      <c r="C929" s="0" t="s">
-        <v>4236</v>
-      </c>
-      <c r="D929" s="0" t="s">
-        <v>4237</v>
-      </c>
-      <c r="E929" s="0" t="s">
+      <c r="G929" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H929" s="0" t="s">
         <v>4244</v>
-      </c>
-      <c r="F929" s="0" t="s">
-        <v>4245</v>
-      </c>
-      <c r="G929" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H929" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="I929" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>4241</v>
+        <v>4245</v>
       </c>
       <c r="K929" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L929" s="0" t="s">
         <v>4246</v>
       </c>
       <c r="M929" s="0" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="N929" s="0" t="s">
         <v>107</v>
       </c>
       <c r="O929" s="0" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="P929" s="0" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="Q929" s="0" t="s">
         <v>48</v>
@@ -70009,16 +70018,16 @@
     </row>
     <row r="930">
       <c r="A930" s="0">
-        <v>9534</v>
+        <v>9357</v>
       </c>
       <c r="B930" s="0" t="s">
         <v>4247</v>
       </c>
       <c r="C930" s="0" t="s">
-        <v>52</v>
+        <v>4240</v>
       </c>
       <c r="D930" s="0" t="s">
-        <v>53</v>
+        <v>4241</v>
       </c>
       <c r="E930" s="0" t="s">
         <v>4248</v>
@@ -70030,42 +70039,104 @@
         <v>26</v>
       </c>
       <c r="H930" s="0" t="s">
-        <v>1348</v>
+        <v>218</v>
       </c>
       <c r="I930" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J930" s="0" t="s">
-        <v>58</v>
+        <v>4245</v>
       </c>
       <c r="K930" s="0">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="L930" s="0" t="s">
         <v>4250</v>
       </c>
       <c r="M930" s="0" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="N930" s="0" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="O930" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P930" s="0" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="Q930" s="0" t="s">
         <v>48</v>
       </c>
       <c r="R930" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S930" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T930" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="0">
+        <v>9534</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>4251</v>
+      </c>
+      <c r="C931" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D931" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E931" s="0" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F931" s="0" t="s">
+        <v>4253</v>
+      </c>
+      <c r="G931" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H931" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I931" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J931" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K931" s="0">
+        <v>70</v>
+      </c>
+      <c r="L931" s="0" t="s">
+        <v>4254</v>
+      </c>
+      <c r="M931" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="N931" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O931" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P931" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q931" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R931" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="S930" s="0" t="s">
+      <c r="S931" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="T930" s="0" t="s">
+      <c r="T931" s="0" t="s">
         <v>50</v>
       </c>
     </row>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:32:52</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:43:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:43:31</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 12:52:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 12:52:48</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:02:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:02:02</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:29:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:29:42</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:50:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:50:58</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 01:59:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 01:59:25</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:17:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:17:34</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:30:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:30:52</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:40:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:40:39</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:49:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:49:21</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 02:58:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 02:58:01</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:16:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:16:47</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:35:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:35:55</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:47:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:47:31</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 03:56:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 03:56:06</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:09:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:09:37</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:22:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:22:38</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:31:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:31:59</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:40:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:40:26</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:49:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:49:24</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 04:57:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 04:57:56</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:14:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:14:54</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:30:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:30:42</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:39:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:39:27</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:48:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:48:21</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 05:57:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 05:57:35</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:12:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:12:26</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:27:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:27:31</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:36:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:36:13</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:45:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:45:08</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 06:54:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 06:54:24</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:03:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:03:38</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:24:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:24:03</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:35:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:35:10</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:44:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:44:07</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 07:52:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 07:52:40</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:01:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:01:47</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:21:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:21:44</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:32:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:32:48</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:42:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:42:31</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 08:52:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-07.xlsx
+++ b/sigbm_download_2022-12-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 07/12/2022 - 08:52:00</t>
+    <t>Informação extraída do SIGBM: 07/12/2022 - 09:00:16</t>
   </si>
   <si>
     <t>ID Barragem</t>
